--- a/web/d3/data/work-dates.xlsx
+++ b/web/d3/data/work-dates.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
   <si>
     <t xml:space="preserve">WorkTitle</t>
   </si>
@@ -58,12 +58,6 @@
     <t xml:space="preserve">work</t>
   </si>
   <si>
-    <t xml:space="preserve">1/18/1851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/3/1852</t>
-  </si>
-  <si>
     <t xml:space="preserve">accurate</t>
   </si>
   <si>
@@ -73,7 +67,7 @@
     <t xml:space="preserve">A History of Yesterday</t>
   </si>
   <si>
-    <t xml:space="preserve">3/1851</t>
+    <t xml:space="preserve">approximate</t>
   </si>
   <si>
     <t xml:space="preserve">Отрочества</t>
@@ -82,102 +76,48 @@
     <t xml:space="preserve">Boyhood </t>
   </si>
   <si>
-    <t xml:space="preserve">11/29/1852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/14/1854</t>
-  </si>
-  <si>
     <t xml:space="preserve">Юность</t>
   </si>
   <si>
     <t xml:space="preserve">Youth </t>
   </si>
   <si>
-    <t xml:space="preserve">3/12/1855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/24/1856</t>
-  </si>
-  <si>
     <t xml:space="preserve">Набег</t>
   </si>
   <si>
     <t xml:space="preserve">The Raid</t>
   </si>
   <si>
-    <t xml:space="preserve">6/15/1852 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/24/1852</t>
-  </si>
-  <si>
     <t xml:space="preserve">Записки маркёра</t>
   </si>
   <si>
     <t xml:space="preserve">A Billiard-Marker's Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">9/13/1853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/1854</t>
-  </si>
-  <si>
     <t xml:space="preserve">Рубка леса</t>
   </si>
   <si>
     <t xml:space="preserve">The Wood-Felling</t>
   </si>
   <si>
-    <t xml:space="preserve">7/1/1854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/1/1854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approximate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/1/1855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/18/1855</t>
-  </si>
-  <si>
     <t xml:space="preserve">Севастополь в декабре месяце</t>
   </si>
   <si>
     <t xml:space="preserve">Sevastopol in December 1854</t>
   </si>
   <si>
-    <t xml:space="preserve">3/15/1855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/25/1855</t>
-  </si>
-  <si>
     <t xml:space="preserve">Севастополь в мае</t>
   </si>
   <si>
     <t xml:space="preserve">Sevastopol in May 1855</t>
   </si>
   <si>
-    <t xml:space="preserve">7/26/1855</t>
-  </si>
-  <si>
     <t xml:space="preserve">Севастополь в августе 1855 года</t>
   </si>
   <si>
     <t xml:space="preserve">Sevastopol in August 1855</t>
   </si>
   <si>
-    <t xml:space="preserve">9/19/1855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/27/1855</t>
-  </si>
-  <si>
     <t xml:space="preserve">Метель</t>
   </si>
   <si>
@@ -187,63 +127,27 @@
     <t xml:space="preserve">conception </t>
   </si>
   <si>
-    <t xml:space="preserve">1/24/1854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/15/1856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/12/1856</t>
-  </si>
-  <si>
     <t xml:space="preserve">Два гусара</t>
   </si>
   <si>
     <t xml:space="preserve">Two Hussars</t>
   </si>
   <si>
-    <t xml:space="preserve">3/12/1856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/14/1856</t>
-  </si>
-  <si>
     <t xml:space="preserve">Из кавказских воспоминаний. Разжалованный</t>
   </si>
   <si>
     <t xml:space="preserve">conception</t>
   </si>
   <si>
-    <t xml:space="preserve">12/15/1853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/15/1854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/1856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/30/1856</t>
-  </si>
-  <si>
     <t xml:space="preserve">Утро помещика</t>
   </si>
   <si>
     <t xml:space="preserve">A Landlord's Morning</t>
   </si>
   <si>
-    <t xml:space="preserve">6/15/1852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/15/1852</t>
-  </si>
-  <si>
     <t xml:space="preserve">multiple</t>
   </si>
   <si>
-    <t xml:space="preserve">11/29/1856</t>
-  </si>
-  <si>
     <t xml:space="preserve">Люцерн</t>
   </si>
   <si>
@@ -253,57 +157,27 @@
     <t xml:space="preserve">written in Switzerland </t>
   </si>
   <si>
-    <t xml:space="preserve">7/7/1857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/11/1857</t>
-  </si>
-  <si>
     <t xml:space="preserve">Альберт</t>
   </si>
   <si>
     <t xml:space="preserve">Albert </t>
   </si>
   <si>
-    <t xml:space="preserve">1/7/1857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/7/1858</t>
-  </si>
-  <si>
     <t xml:space="preserve">work </t>
   </si>
   <si>
-    <t xml:space="preserve">3/17/1858</t>
-  </si>
-  <si>
     <t xml:space="preserve">Три смерти</t>
   </si>
   <si>
     <t xml:space="preserve">Three Deaths</t>
   </si>
   <si>
-    <t xml:space="preserve">1/15/1858 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/24/1858</t>
-  </si>
-  <si>
     <t xml:space="preserve">Семейное счастие</t>
   </si>
   <si>
     <t xml:space="preserve">Family Happiness</t>
   </si>
   <si>
-    <t xml:space="preserve">8/16/1857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/1858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/9/1858</t>
-  </si>
-  <si>
     <t xml:space="preserve">Казаки</t>
   </si>
   <si>
@@ -313,60 +187,24 @@
     <t xml:space="preserve">first concieved in verse</t>
   </si>
   <si>
-    <t xml:space="preserve">5/10/1852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/21/1853</t>
-  </si>
-  <si>
     <t xml:space="preserve">work (1st period)</t>
   </si>
   <si>
-    <t xml:space="preserve">8/28/1853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/1/1854</t>
-  </si>
-  <si>
     <t xml:space="preserve">work (2nd  period)</t>
   </si>
   <si>
-    <t xml:space="preserve">5/15/1857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/31/1858</t>
-  </si>
-  <si>
     <t xml:space="preserve">work (3rd period)</t>
   </si>
   <si>
     <t xml:space="preserve">multiple </t>
   </si>
   <si>
-    <t xml:space="preserve">12/1/1863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/1/1864</t>
-  </si>
-  <si>
     <t xml:space="preserve">Поликушка</t>
   </si>
   <si>
     <t xml:space="preserve">Polikúshka</t>
   </si>
   <si>
-    <t xml:space="preserve">3/15/1861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/15/1862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/6/1861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/15/1862</t>
-  </si>
-  <si>
     <t xml:space="preserve">Декабристы</t>
   </si>
   <si>
@@ -382,21 +220,9 @@
     <t xml:space="preserve">Unfinished</t>
   </si>
   <si>
-    <t xml:space="preserve">11/15/1860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/15/1862</t>
-  </si>
-  <si>
     <t xml:space="preserve">Идиллия: Оно заработки хорошо, да и грех бывает от того</t>
   </si>
   <si>
-    <t xml:space="preserve">5/25/1860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/28/1860</t>
-  </si>
-  <si>
     <t xml:space="preserve">Война и мир </t>
   </si>
   <si>
@@ -404,12 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">work on what Tolstoy referred to as the novel of "1812" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/15/1863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/15/1864</t>
   </si>
   <si>
     <r>
@@ -435,9 +255,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1/3/1865</t>
-  </si>
-  <si>
     <t xml:space="preserve">correcting proofs of part I</t>
   </si>
   <si>
@@ -447,36 +264,22 @@
     <t xml:space="preserve">Part II</t>
   </si>
   <si>
-    <t xml:space="preserve">3/1/1865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/1/1865</t>
-  </si>
-  <si>
     <t xml:space="preserve">Part III</t>
   </si>
   <si>
-    <t xml:space="preserve">1/1/1866</t>
-  </si>
-  <si>
     <t xml:space="preserve">Part IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/15/1866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/15/1866</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
+    <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YYYY"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -560,8 +363,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,7 +376,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,14 +401,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,54 +421,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D22" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="A:I"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.8185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.7481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.8555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -663,903 +479,949 @@
       <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
+      <c r="F2" s="4" t="n">
+        <v>-17878</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>-17346</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1852</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
+      <c r="F3" s="4" t="n">
+        <v>-17836</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>-17836</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1928</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>21</v>
+      <c r="F4" s="4" t="n">
+        <v>-17197</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>-16727</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>1854</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
+      <c r="F5" s="4" t="n">
+        <v>-16364</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>-15802</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>1857</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>29</v>
+      <c r="F6" s="4" t="n">
+        <v>-17364</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>-17172</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1853</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>33</v>
+      <c r="F7" s="4" t="n">
+        <v>-16909</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>-16768</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1855</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>37</v>
+      <c r="F8" s="4" t="n">
+        <v>-16618</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-16556</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1855</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>40</v>
+      <c r="F9" s="4" t="n">
+        <v>-16283</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>-16236</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>1855</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>44</v>
+      <c r="F10" s="4" t="n">
+        <v>-16361</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>-16320</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1855</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>47</v>
+      <c r="F11" s="4" t="n">
+        <v>-16236</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>-16228</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1855</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>51</v>
+      <c r="F12" s="4" t="n">
+        <v>-16173</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>-16074</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>-16776</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>-16776</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>57</v>
+      <c r="F14" s="4" t="n">
+        <v>-16055</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>-16027</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>61</v>
+      <c r="F15" s="4" t="n">
+        <v>-15998</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>-15965</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>-16816</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>-16451</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>67</v>
+      <c r="F17" s="4" t="n">
+        <v>-15764</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>-15735</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>-17364</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>-17303</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>-17303</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>-15736</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>1856</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>-15516</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>-15512</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>1857</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>-15697</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>-15332</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>1858</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>-15697</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>-15263</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>1858</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>88</v>
+      <c r="F23" s="4" t="n">
+        <v>-15324</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>-15315</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>1859</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>-15476</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>-15476</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>1859</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>93</v>
+      <c r="F25" s="4" t="n">
+        <v>-15036</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>-15240</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1859</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>-17400</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>-16871</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>1864</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>-16925</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>-16799</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>1864</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>104</v>
+        <v>41</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>-15569</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>-14974</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>1864</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>-13178</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>-13147</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>1864</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>112</v>
+        <v>38</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>-14169</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>-13804</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1863</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>-14117</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>-13590</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>1863</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>121</v>
+        <v>65</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>-14289</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>-13529</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>1911</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>124</v>
+        <v>65</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>-14463</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>-14307</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>1911</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="4"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>129</v>
+        <v>68</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>-13467</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>-13102</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>131</v>
+      <c r="E36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>-13102</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>-12779</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="5" t="n">
+      <c r="E37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>-12779</v>
+      </c>
+      <c r="G37" s="4" t="n">
         <v>-12723</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>-12722</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>-12477</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>138</v>
+        <v>74</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>-12477</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>-12416</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>141</v>
+        <v>75</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>-12402</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>-12371</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>15</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="7"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/web/d3/data/work-dates.xlsx
+++ b/web/d3/data/work-dates.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t xml:space="preserve">WorkTitle</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">correcting proofs of part I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">война и мир </t>
   </si>
   <si>
     <t xml:space="preserve">Part II</t>
@@ -424,19 +421,21 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="A:I"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.462962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1111111111111"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,7 +1348,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>68</v>
@@ -1358,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>-12722</v>
@@ -1383,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>-12477</v>
@@ -1408,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>-12402</v>
